--- a/Spreadsheets/AUS ACADEMIC PUBLICATION.xlsx
+++ b/Spreadsheets/AUS ACADEMIC PUBLICATION.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Department"/>
   </sheets>
   <definedNames>
-    <definedName name="Department">'Department'!$A$1:$X$10</definedName>
+    <definedName name="Department">'Department'!$A$1:$X$4</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -475,21 +475,21 @@
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
-        <v>37</v>
+        <v>670</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Gerassimos</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Al-Ali</t>
+          <t>Barlas</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>A. Al-Ali</t>
+          <t>Gerassimos Barlas</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="J2" s="0">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="K2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="0">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -554,26 +554,26 @@
         <v>0</v>
       </c>
       <c r="X2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
-        <v>254</v>
+        <v>686</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>A.</t>
+          <t>Tamer</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Sagahyroon</t>
+          <t>Shanableh</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>A. Sagahyroon</t>
+          <t>Tamer Shanableh</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -596,19 +596,19 @@
         </is>
       </c>
       <c r="J3" s="0">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="K3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="N3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -643,21 +643,21 @@
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0">
-        <v>498</v>
+        <v>703</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>F.</t>
+          <t>Imran</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Aloul</t>
+          <t>Zualkernan</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>F. Aloul</t>
+          <t>Imran Zualkernan</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -680,19 +680,19 @@
         </is>
       </c>
       <c r="J4" s="0">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="K4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="N4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="0">
         <v>0</v>
@@ -726,508 +726,160 @@
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
-        <v>570</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Gerassimos</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Barlas</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Gerassimos Barlas</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="F5" s="0">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J5" s="0">
-        <v>3</v>
-      </c>
-      <c r="K5" s="0">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0">
-        <v>1</v>
-      </c>
-      <c r="N5" s="0">
-        <v>2</v>
-      </c>
-      <c r="O5" s="0">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0">
-        <v>0</v>
-      </c>
-      <c r="U5" s="0">
-        <v>0</v>
-      </c>
-      <c r="V5" s="0">
-        <v>0</v>
-      </c>
-      <c r="W5" s="0">
-        <v>0</v>
-      </c>
-      <c r="X5" s="0">
-        <v>0</v>
-      </c>
+      <c r="A5" s="0"/>
+      <c r="B5" s="0" t="inlineStr"/>
+      <c r="C5" s="0" t="inlineStr"/>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0" t="inlineStr"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
-        <v>633</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>H.</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Orabi</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>H. Orabi</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Staff</t>
-        </is>
-      </c>
-      <c r="F6" s="0">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J6" s="0">
-        <v>2.34</v>
-      </c>
-      <c r="K6" s="0">
-        <v>2</v>
-      </c>
-      <c r="L6" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="M6" s="0">
-        <v>0.34</v>
-      </c>
-      <c r="N6" s="0">
-        <v>2</v>
-      </c>
-      <c r="O6" s="0">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0">
-        <v>0</v>
-      </c>
-      <c r="T6" s="0">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0">
-        <v>0</v>
-      </c>
-      <c r="V6" s="0">
-        <v>0</v>
-      </c>
-      <c r="W6" s="0">
-        <v>0</v>
-      </c>
-      <c r="X6" s="0">
-        <v>0</v>
-      </c>
+      <c r="A6" s="0"/>
+      <c r="B6" s="0" t="inlineStr"/>
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0" t="inlineStr"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
-        <v>712</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Imran</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Zualkernan</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Imran Zualkernan</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="F7" s="0">
-        <v>17</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J7" s="0">
-        <v>6</v>
-      </c>
-      <c r="K7" s="0">
-        <v>4</v>
-      </c>
-      <c r="L7" s="0">
-        <v>2</v>
-      </c>
-      <c r="M7" s="0">
-        <v>1</v>
-      </c>
-      <c r="N7" s="0">
-        <v>2</v>
-      </c>
-      <c r="O7" s="0">
-        <v>1</v>
-      </c>
-      <c r="P7" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0">
-        <v>0</v>
-      </c>
-      <c r="T7" s="0">
-        <v>2</v>
-      </c>
-      <c r="U7" s="0">
-        <v>0</v>
-      </c>
-      <c r="V7" s="0">
-        <v>0</v>
-      </c>
-      <c r="W7" s="0">
-        <v>0</v>
-      </c>
-      <c r="X7" s="0">
-        <v>0</v>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0" t="inlineStr"/>
+      <c r="C7" s="0" t="inlineStr"/>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0" t="inlineStr"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
-        <v>1561</v>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Salam</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Dhou</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Salam Dhou</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Assistant Professor</t>
-        </is>
-      </c>
-      <c r="F8" s="0">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J8" s="0">
-        <v>3</v>
-      </c>
-      <c r="K8" s="0">
-        <v>2</v>
-      </c>
-      <c r="L8" s="0">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0">
-        <v>0</v>
-      </c>
-      <c r="S8" s="0">
-        <v>1</v>
-      </c>
-      <c r="T8" s="0">
-        <v>0</v>
-      </c>
-      <c r="U8" s="0">
-        <v>0</v>
-      </c>
-      <c r="V8" s="0">
-        <v>0</v>
-      </c>
-      <c r="W8" s="0">
-        <v>0</v>
-      </c>
-      <c r="X8" s="0">
-        <v>2</v>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0" t="inlineStr"/>
+      <c r="C8" s="0" t="inlineStr"/>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0" t="inlineStr"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
-        <v>1717</v>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Taha</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Landolsi</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Taha Landolsi</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="F9" s="0">
-        <v>17</v>
-      </c>
-      <c r="G9" s="0">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J9" s="0">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0">
-        <v>2</v>
-      </c>
-      <c r="L9" s="0">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0">
-        <v>1</v>
-      </c>
-      <c r="N9" s="0">
-        <v>2</v>
-      </c>
-      <c r="O9" s="0">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0">
-        <v>0</v>
-      </c>
-      <c r="S9" s="0">
-        <v>0</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0">
-        <v>0</v>
-      </c>
-      <c r="V9" s="0">
-        <v>0</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0">
-        <v>0</v>
-      </c>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0" t="inlineStr"/>
+      <c r="C9" s="0" t="inlineStr"/>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0" t="inlineStr"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
-        <v>1728</v>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Tamer</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Shanableh</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Tamer Shanableh</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>Professor</t>
-        </is>
-      </c>
-      <c r="F10" s="0">
-        <v>17</v>
-      </c>
-      <c r="G10" s="0">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0">
-        <v>1440</v>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>Dept. of Computer Science and Eng.</t>
-        </is>
-      </c>
-      <c r="J10" s="0">
-        <v>3</v>
-      </c>
-      <c r="K10" s="0">
-        <v>2</v>
-      </c>
-      <c r="L10" s="0">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0">
-        <v>0</v>
-      </c>
-      <c r="S10" s="0">
-        <v>1</v>
-      </c>
-      <c r="T10" s="0">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0">
-        <v>0</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0</v>
-      </c>
-      <c r="X10" s="0">
-        <v>2</v>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr"/>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0" t="inlineStr"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
